--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints0.600000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints0.600000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>5.424640654860763e-33</v>
+        <v>5.327072882677288e-33</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>5.389748661348449e-33</v>
+        <v>5.426982830732101e-33</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>5.405838411908064e-33</v>
+        <v>5.546835998621394e-33</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>5.468902076738942e-33</v>
+        <v>5.685307760778564e-33</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>5.574931826040446e-33</v>
+        <v>5.841073491637461e-33</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>5.719919830011954e-33</v>
+        <v>6.012808565631798e-33</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>5.899858258853106e-33</v>
+        <v>6.199188357195539e-33</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>6.110739282762801e-33</v>
+        <v>6.398888240761903e-33</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>6.348555071940631e-33</v>
+        <v>6.610583590764832e-33</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>6.609297796586328e-33</v>
+        <v>6.832949781638338e-33</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>6.888959626898588e-33</v>
+        <v>7.064662187815547e-33</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>7.18353273307711e-33</v>
+        <v>7.304396183730452e-33</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>7.489009285321681e-33</v>
+        <v>7.550827143817088e-33</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>7.801381453830878e-33</v>
+        <v>7.802630442508522e-33</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>8.116641408804464e-33</v>
+        <v>8.058481454238777e-33</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>8.430781320441826e-33</v>
+        <v>8.31705555344157e-33</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>8.739793358942738e-33</v>
+        <v>8.577028114550948e-33</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>9.039669694505767e-33</v>
+        <v>8.837074511999938e-33</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>9.326515328775302e-33</v>
+        <v>9.095883795841041e-33</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>9.598704274339321e-33</v>
+        <v>9.352420029249507e-33</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>9.856711932705727e-33</v>
+        <v>9.605901972068573e-33</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.010109295051333e-32</v>
+        <v>9.855557988966427e-33</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.033240197440059e-32</v>
+        <v>1.010061644461092e-32</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.05511936510062e-32</v>
+        <v>1.034030570367021e-32</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.075802262696805e-32</v>
+        <v>1.05738541308115e-32</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.095344354892487e-32</v>
+        <v>1.080049009070299e-32</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.113801106351534e-32</v>
+        <v>1.101944194801278e-32</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.131227981737742e-32</v>
+        <v>1.122993806740815e-32</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.147680445714979e-32</v>
+        <v>1.143120681355725e-32</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.163213962947092e-32</v>
+        <v>1.162247655112793e-32</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.177883998097941e-32</v>
+        <v>1.180297564478825e-32</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.191746015831333e-32</v>
+        <v>1.197193245920559e-32</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.204855480811133e-32</v>
+        <v>1.212857535904806e-32</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.217267857701199e-32</v>
+        <v>1.227213270898367e-32</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.229024312822101e-32</v>
+        <v>1.240189398670374e-32</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.240070317408733e-32</v>
+        <v>1.2517557683445e-32</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.250312067375633e-32</v>
+        <v>1.261899015839555e-32</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.259655638889526e-32</v>
+        <v>1.270605828256104e-32</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.268007108117179e-32</v>
+        <v>1.277862892694751e-32</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.275272551225344e-32</v>
+        <v>1.283656896256087e-32</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.281358044380781e-32</v>
+        <v>1.287974526040708e-32</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.286169663750225e-32</v>
+        <v>1.290802469149193e-32</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.289613485500438e-32</v>
+        <v>1.292127412682138e-32</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.291595585798174e-32</v>
+        <v>1.291936043740134e-32</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.29202204081018e-32</v>
+        <v>1.290215049423772e-32</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.290798926703212e-32</v>
+        <v>1.286951116833644e-32</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.287832319644022e-32</v>
+        <v>1.282130933070339e-32</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.283028295799355e-32</v>
+        <v>1.27574118523444e-32</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.276292931335975e-32</v>
+        <v>1.267768560426553e-32</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.267547766030789e-32</v>
+        <v>1.258209974424447e-32</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.256913139556762e-32</v>
+        <v>1.247193842697124e-32</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.244647308070963e-32</v>
+        <v>1.234939808000111e-32</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.231011301997089e-32</v>
+        <v>1.221669348176422e-32</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.216266151758829e-32</v>
+        <v>1.207603941069065e-32</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.200672887779934e-32</v>
+        <v>1.192965064521108e-32</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.184492540484094e-32</v>
+        <v>1.177974196375559e-32</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.167986140295019e-32</v>
+        <v>1.162852814475448e-32</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.151414717636398e-32</v>
+        <v>1.147822396663783e-32</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.135039302931985e-32</v>
+        <v>1.133104420783633e-32</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.119120926605468e-32</v>
+        <v>1.118920364678005e-32</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.103920619080538e-32</v>
+        <v>1.105491706189911e-32</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.089692117549265e-32</v>
+        <v>1.093033132769919e-32</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.076509792977948e-32</v>
+        <v>1.081592332227425e-32</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.064261945583608e-32</v>
+        <v>1.071043750457251e-32</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.052828240880746e-32</v>
+        <v>1.06125379397994e-32</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.042088344383906e-32</v>
+        <v>1.052088869316069e-32</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.031921921607589e-32</v>
+        <v>1.04341538298618e-32</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.022208638066298e-32</v>
+        <v>1.035099741510817e-32</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.012828159274574e-32</v>
+        <v>1.027008351410555e-32</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.003660150746919e-32</v>
+        <v>1.019007619205938e-32</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>9.945842779978372e-33</v>
+        <v>1.010963951417508e-32</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>9.854802065418671e-33</v>
+        <v>1.002743754565842e-32</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>9.762276018935129e-33</v>
+        <v>9.942134351714827e-33</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>9.667061295672898e-33</v>
+        <v>9.852393997549838e-33</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>9.567954550776998e-33</v>
+        <v>9.756880548368864e-33</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>9.463752439392848e-33</v>
+        <v>9.654258069377704e-33</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>9.353251616665472e-33</v>
+        <v>9.543190625781769e-33</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>9.235248737739868e-33</v>
+        <v>9.422342282786447e-33</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>9.108540457761498e-33</v>
+        <v>9.290377105597586e-33</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>8.971923431875364e-33</v>
+        <v>9.145959159420573e-33</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>8.824194315226628e-33</v>
+        <v>8.987752509460956e-33</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>8.66414976296022e-33</v>
+        <v>8.814421220924037e-33</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>8.490586430221719e-33</v>
+        <v>8.624629359015809e-33</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>8.302300972156075e-33</v>
+        <v>8.417040988941597e-33</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>8.098090043908166e-33</v>
+        <v>8.190320175906632e-33</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>7.876750300623683e-33</v>
+        <v>7.94313098511705e-33</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>7.637078397447521e-33</v>
+        <v>7.674137481778105e-33</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>7.378945459240675e-33</v>
+        <v>7.383396171205972e-33</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>7.107807857826384e-33</v>
+        <v>7.078201661181161e-33</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>6.830931079193648e-33</v>
+        <v>6.768193049135027e-33</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>6.555581537497743e-33</v>
+        <v>6.463010635339839e-33</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>6.289025646893954e-33</v>
+        <v>6.172294720067893e-33</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>6.038529821538605e-33</v>
+        <v>5.905685603592626e-33</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>5.811360475586968e-33</v>
+        <v>5.672823586186307e-33</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>5.614784023194427e-33</v>
+        <v>5.483348968121384e-33</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>5.456066878517133e-33</v>
+        <v>5.346902049671031e-33</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>5.342475455710426e-33</v>
+        <v>5.273123131107628e-33</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>5.281276168929929e-33</v>
+        <v>5.27165251270384e-33</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>5.279735432331309e-33</v>
+        <v>5.352130494732493e-33</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>5.345119660070197e-33</v>
+        <v>5.524197377466051e-33</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>6.776666394080607e-35</v>
+        <v>6.817742224875528e-35</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>8.691023727169138e-35</v>
+        <v>8.767335138715908e-35</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>8.243795959485506e-35</v>
+        <v>8.436646405759443e-35</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.10231208620216e-34</v>
+        <v>1.110588984140568e-34</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.366649082158719e-34</v>
+        <v>1.360700723188109e-34</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.387326259065668e-34</v>
+        <v>1.381806676992713e-34</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>2.229607727534417e-34</v>
+        <v>2.237843955250327e-34</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>5.82411234460883e-34</v>
+        <v>5.845277011628246e-34</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>1.167328706514889e-33</v>
+        <v>1.170525469883829e-33</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.42956394573532e-33</v>
+        <v>1.434866200584698e-33</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.48645753875969e-33</v>
+        <v>1.489630221884595e-33</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.474333024206232e-33</v>
+        <v>1.471803660613931e-33</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.407363217562916e-33</v>
+        <v>1.403674967887319e-33</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>1.317889770904735e-33</v>
+        <v>1.317445790726196e-33</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>1.246825754529253e-33</v>
+        <v>1.249011843865487e-33</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>1.197772716890978e-33</v>
+        <v>1.198575163784032e-33</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>1.168188689891202e-33</v>
+        <v>1.16478727579836e-33</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>1.173725664383219e-33</v>
+        <v>1.17476508926599e-33</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>1.132598791400191e-33</v>
+        <v>1.135474654589797e-33</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>1.088727901614699e-33</v>
+        <v>1.087257464602988e-33</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>1.087531202893871e-33</v>
+        <v>1.084868201027076e-33</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>1.067257015513676e-33</v>
+        <v>1.065118873101971e-33</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.034210627318921e-33</v>
+        <v>1.033134090662296e-33</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>1.002997507429123e-33</v>
+        <v>1.002786444180236e-33</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>9.715891155850611e-34</v>
+        <v>9.719374214617888e-34</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>9.361549052710061e-34</v>
+        <v>9.367139851890774e-34</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>8.930551916418359e-34</v>
+        <v>8.934501090076475e-34</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>8.405976982216559e-34</v>
+        <v>8.405919501219912e-34</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>7.782286454136612e-34</v>
+        <v>7.778204937407887e-34</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>7.054718473692286e-34</v>
+        <v>7.048922517321696e-34</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>6.243107105108794e-34</v>
+        <v>6.238958869233848e-34</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>5.399235923082106e-34</v>
+        <v>5.39949469997688e-34</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>4.577023594703644e-34</v>
+        <v>4.583735181103124e-34</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>3.824501983761505e-34</v>
+        <v>3.838726601352077e-34</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>3.150880181924145e-34</v>
+        <v>3.170898145130622e-34</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>2.549683430817599e-34</v>
+        <v>2.570283762393587e-34</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>2.020326417581127e-34</v>
+        <v>2.035134687539827e-34</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>1.574470089148917e-34</v>
+        <v>1.580756730349783e-34</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>1.224540101229888e-34</v>
+        <v>1.223689881745179e-34</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>9.68156632631118e-35</v>
+        <v>9.63202575685097e-35</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>7.893614344913333e-35</v>
+        <v>7.827231223359127e-35</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>6.716937120341105e-35</v>
+        <v>6.650935791915878e-35</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>5.986926704831672e-35</v>
+        <v>5.931560037462242e-35</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>5.538975150620567e-35</v>
+        <v>5.49752453493759e-35</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>5.214833056973575e-35</v>
+        <v>5.183923723436745e-35</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>4.943602620004628e-35</v>
+        <v>4.917535360327563e-35</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>4.717854980617613e-35</v>
+        <v>4.691753540578966e-35</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>4.531590028533181e-35</v>
+        <v>4.501471958906516e-35</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>4.378807653472055e-35</v>
+        <v>4.341584310025838e-35</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>4.253507745155153e-35</v>
+        <v>4.206984288652768e-35</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>4.149690193303189e-35</v>
+        <v>4.092565589502919e-35</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>4.061354887636944e-35</v>
+        <v>3.993221907291981e-35</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>3.982501717877167e-35</v>
+        <v>3.903846936735609e-35</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>3.907924602258104e-35</v>
+        <v>3.820000507581768e-35</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>3.836351076640775e-35</v>
+        <v>3.740542482839526e-35</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>3.767724561856149e-35</v>
+        <v>3.665352768954613e-35</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>3.701988834693168e-35</v>
+        <v>3.594311570996912e-35</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>3.639087671940682e-35</v>
+        <v>3.527299094036207e-35</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>3.578964850387572e-35</v>
+        <v>3.464195543142317e-35</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>3.521564146822694e-35</v>
+        <v>3.404881123385036e-35</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>3.466829338034982e-35</v>
+        <v>3.349236039834235e-35</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>3.41470420081329e-35</v>
+        <v>3.297140497559705e-35</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>3.365132511946478e-35</v>
+        <v>3.248474701631244e-35</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>3.31805804822347e-35</v>
+        <v>3.203118857118712e-35</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>3.273424586433128e-35</v>
+        <v>3.160953169091909e-35</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>3.231175903364329e-35</v>
+        <v>3.12185784262065e-35</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>3.191255775805941e-35</v>
+        <v>3.08571308277474e-35</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>3.153607980546878e-35</v>
+        <v>3.052399094624029e-35</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>3.118176294376005e-35</v>
+        <v>3.02179608323832e-35</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>3.084904494082188e-35</v>
+        <v>2.993784253687418e-35</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>3.053736356454338e-35</v>
+        <v>2.968243811041168e-35</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>3.024615658281321e-35</v>
+        <v>2.945054960369375e-35</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>2.997486176352019e-35</v>
+        <v>2.924097906741857e-35</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>2.972291687455299e-35</v>
+        <v>2.905252855228425e-35</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>2.94897596838007e-35</v>
+        <v>2.888400010898914e-35</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>2.927482795915199e-35</v>
+        <v>2.873419578823135e-35</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>2.907755946849559e-35</v>
+        <v>2.8601917640709e-35</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>2.889739197972048e-35</v>
+        <v>2.84859677171204e-35</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>2.87337632607154e-35</v>
+        <v>2.838514806816367e-35</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>2.858611107936914e-35</v>
+        <v>2.829826074453698e-35</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>2.845387320357048e-35</v>
+        <v>2.822410779693852e-35</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>2.833648740120834e-35</v>
+        <v>2.816149127606651e-35</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>2.823339144017147e-35</v>
+        <v>2.810921323261912e-35</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>2.814402308834868e-35</v>
+        <v>2.806607571729453e-35</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.806782011362877e-35</v>
+        <v>2.80308807807909e-35</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.800422028390059e-35</v>
+        <v>2.800243047380646e-35</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.795266136705295e-35</v>
+        <v>2.797952684703938e-35</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.791258119217483e-35</v>
+        <v>2.796097208251861e-35</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>2.788363625895634e-35</v>
+        <v>2.794603761197005e-35</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>2.786619287953429e-35</v>
+        <v>2.793551806810756e-35</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>2.786076113797115e-35</v>
+        <v>2.793051660674868e-35</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>2.786785111832937e-35</v>
+        <v>2.793213638371096e-35</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>2.78879729046714e-35</v>
+        <v>2.794148055481193e-35</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>2.792163658105969e-35</v>
+        <v>2.795965227586915e-35</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>2.796935223155673e-35</v>
+        <v>2.798775470270019e-35</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>2.803162994022492e-35</v>
+        <v>2.802689099112255e-35</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>2.810897979112675e-35</v>
+        <v>2.807816429695382e-35</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>2.820191186832465e-35</v>
+        <v>2.814267777601152e-35</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>2.831093625588115e-35</v>
+        <v>2.822153458411326e-35</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>2.843656303785859e-35</v>
+        <v>2.831583787707649e-35</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>2.857930229831946e-35</v>
+        <v>2.842669081071881e-35</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>2.873966412132633e-35</v>
+        <v>2.855519654085783e-35</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>2.891815859094147e-35</v>
+        <v>2.870245822331097e-35</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>2.911529579122743e-35</v>
+        <v>2.886957901389585e-35</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>2.933158580624663e-35</v>
+        <v>2.905766206842999e-35</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>2.956753872006169e-35</v>
+        <v>2.926781054273107e-35</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>2.982366461673479e-35</v>
+        <v>2.950112759261643e-35</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>3.010047358032853e-35</v>
+        <v>2.975871637390372e-35</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>3.039847569490549e-35</v>
+        <v>3.00416800424106e-35</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>3.071818104452785e-35</v>
+        <v>3.035112175395437e-35</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>3.10600997132582e-35</v>
+        <v>3.068814466435272e-35</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>3.142474178515898e-35</v>
+        <v>3.105385192942317e-35</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>3.181261734429285e-35</v>
+        <v>3.144934670498347e-35</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>3.22242364747219e-35</v>
+        <v>3.187573214685081e-35</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>3.266161628645457e-35</v>
+        <v>3.23354220998787e-35</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>3.313482573171104e-35</v>
+        <v>3.283783324874198e-35</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>3.365661185593115e-35</v>
+        <v>3.339471146656067e-35</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>3.423972350809644e-35</v>
+        <v>3.401780419502937e-35</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>3.489690953718818e-35</v>
+        <v>3.471885887584239e-35</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>3.564091879218803e-35</v>
+        <v>3.550962295069445e-35</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>3.648450012207665e-35</v>
+        <v>3.640184386127922e-35</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>3.744040237583562e-35</v>
+        <v>3.740726904929132e-35</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>3.852137440244679e-35</v>
+        <v>3.853764595642567e-35</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>3.974016505089047e-35</v>
+        <v>3.980472202437557e-35</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>4.110952317014844e-35</v>
+        <v>4.122024469483585e-35</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>4.264219760920198e-35</v>
+        <v>4.279596140950087e-35</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>4.435093721703323e-35</v>
+        <v>4.454361961006578e-35</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>4.624849084262192e-35</v>
+        <v>4.647496673822332e-35</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>4.834760733495011e-35</v>
+        <v>4.860175023566864e-35</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>5.066103554300019e-35</v>
+        <v>5.093571754409715e-35</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>5.320152431575136e-35</v>
+        <v>5.348861610520107e-35</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>5.598460105024784e-35</v>
+        <v>5.62751072123023e-35</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>5.905530854518883e-35</v>
+        <v>5.934080483587768e-35</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>6.247648761514456e-35</v>
+        <v>6.274998765053692e-35</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>6.631122450625504e-35</v>
+        <v>6.656719171394138e-35</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>7.062260546466467e-35</v>
+        <v>7.085695308375689e-35</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>7.547371673651652e-35</v>
+        <v>7.568380781764787e-35</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>8.092764456795618e-35</v>
+        <v>8.111229197328128e-35</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>8.704747520512178e-35</v>
+        <v>8.720694160831663e-35</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>9.389629489415865e-35</v>
+        <v>9.403229278042066e-35</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>1.015371898812135e-34</v>
+        <v>1.016528815472614e-34</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>1.100332464124223e-34</v>
+        <v>1.101332439664963e-34</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>1.194475507339316e-34</v>
+        <v>1.195379160957931e-34</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>1.29843189091889e-34</v>
+        <v>1.29931433992821e-34</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>1.412633779937724e-34</v>
+        <v>1.41358318773755e-34</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.535079367964169e-34</v>
+        <v>1.536179157217663e-34</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.662135527552658e-34</v>
+        <v>1.663452458921428e-34</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.790139064958597e-34</v>
+        <v>1.791723017386091e-34</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.915426786437215e-34</v>
+        <v>1.91731075714872e-34</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>2.034335498243917e-34</v>
+        <v>2.03653560274656e-34</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>2.14320200663405e-34</v>
+        <v>2.145717478716797e-34</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>2.238363117862999e-34</v>
+        <v>2.241176309596656e-34</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>2.316155638186024e-34</v>
+        <v>2.319232019923238e-34</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>2.372916373858518e-34</v>
+        <v>2.376204534233774e-34</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>2.404982131135837e-34</v>
+        <v>2.408413777065459e-34</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>2.408689716273295e-34</v>
+        <v>2.412179672955449e-34</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>2.38037593552626e-34</v>
+        <v>2.383822146440951e-34</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>2.316736083034213e-34</v>
+        <v>2.320021328488411e-34</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>2.219565502274466e-34</v>
+        <v>2.222581848387206e-34</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>2.094454780853111e-34</v>
+        <v>2.097121773471082e-34</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.947084868958646e-34</v>
+        <v>1.949349966842868e-34</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.783136716779528e-34</v>
+        <v>1.784975291605352e-34</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.608291274504444e-34</v>
+        <v>1.60970661086155e-34</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.428229492321854e-34</v>
+        <v>1.429252787714257e-34</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.248632320420294e-34</v>
+        <v>1.249322685266339e-34</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.075180708988223e-34</v>
+        <v>1.075625166620584e-34</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>9.135556082143331e-35</v>
+        <v>9.138690948800161e-35</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>7.694379682870784e-35</v>
+        <v>7.697633331474218e-35</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>6.485087393949448e-35</v>
+        <v>6.49016744525618e-35</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>5.564488717265781e-35</v>
+        <v>5.573381921175805e-35</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>4.989393154704524e-35</v>
+        <v>5.004365390261154e-35</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>4.800318048214063e-35</v>
+        <v>4.823677652576886e-35</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>4.809799260764859e-35</v>
+        <v>4.840585214755196e-35</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>4.662616270175254e-35</v>
+        <v>4.694161254610034e-35</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>4.000230150035393e-35</v>
+        <v>4.020116578818928e-35</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>2.771265987196204e-35</v>
+        <v>2.768062878210217e-35</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>1.730673933269122e-35</v>
+        <v>1.711594102424964e-35</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>1.316828553754652e-35</v>
+        <v>1.298884403744699e-35</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>1.235137209802721e-35</v>
+        <v>1.225965187679811e-35</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>1.16712241207055e-35</v>
+        <v>1.164606399579468e-35</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>1.044770203664868e-35</v>
+        <v>1.045020064064822e-35</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>8.893277056931549e-36</v>
+        <v>8.895227064440862e-36</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>7.221515012769639e-36</v>
+        <v>7.205438009655432e-36</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>5.641451060953499e-36</v>
+        <v>5.600402241104514e-36</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>4.272781192486081e-36</v>
+        <v>4.206498224986755e-36</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>3.153415293369775e-36</v>
+        <v>3.064792778569568e-36</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>2.3182468832168e-36</v>
+        <v>2.213206326581886e-36</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.802169481640445e-36</v>
+        <v>1.689659293753734e-36</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>1.640076608252796e-36</v>
+        <v>1.532072104813902e-36</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.866861782666377e-36</v>
+        <v>1.778365184491633e-36</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>2.517418524494107e-36</v>
+        <v>2.466458957516586e-36</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>3.626640353347941e-36</v>
+        <v>3.634273848617397e-36</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>5.307762338882029e-36</v>
+        <v>5.394174162171013e-36</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>8.583686364342339e-36</v>
+        <v>8.7229330220702e-36</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.452561730886082e-35</v>
+        <v>1.463600874563557e-35</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>2.154465240333465e-35</v>
+        <v>2.158530066858068e-35</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>2.726693938677781e-35</v>
+        <v>2.726668473156019e-35</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>3.086624693974597e-35</v>
+        <v>3.088221731266331e-35</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>3.348825809211665e-35</v>
+        <v>3.355306435915836e-35</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>3.640660848579129e-35</v>
+        <v>3.652491805963896e-35</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>4.089482276819328e-35</v>
+        <v>4.104336137183842e-35</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>4.764041803241211e-35</v>
+        <v>4.777728091262714e-35</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>5.537700228231881e-35</v>
+        <v>5.547270033610815e-35</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>6.243144709093824e-35</v>
+        <v>6.247536959747072e-35</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>6.713062403129658e-35</v>
+        <v>6.713103865190551e-35</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>6.798008006824375e-35</v>
+        <v>6.796292426163839e-35</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>6.588820091235715e-35</v>
+        <v>6.588082880469944e-35</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>6.348373856415456e-35</v>
+        <v>6.35032841561717e-35</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>6.343283144927528e-35</v>
+        <v>6.348595572936669e-35</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>6.771212520279551e-35</v>
+        <v>6.779737496911569e-35</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>7.533804710393642e-35</v>
+        <v>7.545598216010087e-35</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>8.453275455723236e-35</v>
+        <v>8.468866498702407e-35</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>9.351839525446223e-35</v>
+        <v>9.372230145506001e-35</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>1.005171214139244e-34</v>
+        <v>1.007837740660388e-34</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>1.042428140712571e-34</v>
+        <v>1.04588449919982e-34</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>1.052539906299828e-34</v>
+        <v>1.056841623527724e-34</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.045416360909511e-34</v>
+        <v>1.050483590589833e-34</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.03096735455009e-34</v>
+        <v>1.036584877331857e-34</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.018760949771542e-34</v>
+        <v>1.024585543997058e-34</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.012999312989865e-34</v>
+        <v>1.018675471964041e-34</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.013621270581498e-34</v>
+        <v>1.018873142865742e-34</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>1.020448036196918e-34</v>
+        <v>1.025081961965254e-34</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>1.033300823486588e-34</v>
+        <v>1.037205334525656e-34</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>1.052000846100982e-34</v>
+        <v>1.055146665810036e-34</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>1.07636931769057e-34</v>
+        <v>1.078809361081483e-34</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>1.106227451905838e-34</v>
+        <v>1.108096825603097e-34</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>1.141392435778076e-34</v>
+        <v>1.142908123398125e-34</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.181156969252643e-34</v>
+        <v>1.182576850505154e-34</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.223774434805227e-34</v>
+        <v>1.22531607822392e-34</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.26737586547794e-34</v>
+        <v>1.269206968624198e-34</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.310092294312951e-34</v>
+        <v>1.312330683775824e-34</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.35005475435241e-34</v>
+        <v>1.352768385748616e-34</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.385394278638481e-34</v>
+        <v>1.388601236612403e-34</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.414241900213283e-34</v>
+        <v>1.41791039843697e-34</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.434728652118983e-34</v>
+        <v>1.43877703329215e-34</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.444988998697437e-34</v>
+        <v>1.449285834686921e-34</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.443866943787805e-34</v>
+        <v>1.448251742911512e-34</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>1.431780867951644e-34</v>
+        <v>1.436110021773568e-34</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.409360833449123e-34</v>
+        <v>1.413513794522876e-34</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.377236902540395e-34</v>
+        <v>1.381116184409208e-34</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.336039137485659e-34</v>
+        <v>1.339570314682382e-34</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.286397600545072e-34</v>
+        <v>1.289529308592173e-34</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.228942353978775e-34</v>
+        <v>1.231646289388342e-34</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.164303460046989e-34</v>
+        <v>1.16657438032073e-34</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.093153247629789e-34</v>
+        <v>1.095008228967953e-34</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.016806882335898e-34</v>
+        <v>1.018274030067226e-34</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>9.370797618391466e-35</v>
+        <v>9.381894252897649e-35</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>8.558004658617179e-35</v>
+        <v>8.565850068505406e-35</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>7.747975741256881e-35</v>
+        <v>7.752913669644182e-35</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>6.95899666353134e-35</v>
+        <v>6.961390978462621e-35</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>6.209353222662388e-35</v>
+        <v>6.209587917110443e-35</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>5.517331215870776e-35</v>
+        <v>5.515810407736281e-35</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>4.901216440377619e-35</v>
+        <v>4.898364372489132e-35</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>4.374517099769641e-35</v>
+        <v>4.370768150820288e-35</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>3.931038293642054e-35</v>
+        <v>3.926795782648764e-35</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>3.559506595982066e-35</v>
+        <v>3.555132164029234e-35</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>3.248648575578224e-35</v>
+        <v>3.244462185806853e-35</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>2.987190801218969e-35</v>
+        <v>2.98347073882666e-35</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>2.763859841693081e-35</v>
+        <v>2.760842713934037e-35</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>2.567382265788985e-35</v>
+        <v>2.56526300197401e-35</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>2.386484642295146e-35</v>
+        <v>2.385416493791646e-35</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>2.209924188780679e-35</v>
+        <v>2.210018683995816e-35</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>2.032206372016237e-35</v>
+        <v>2.03352487338422e-35</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>1.860311976449372e-35</v>
+        <v>1.862847356718966e-35</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>1.702856865873824e-35</v>
+        <v>1.706531106508274e-35</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>1.56845690408309e-35</v>
+        <v>1.573121095260128e-35</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>1.465727954870751e-35</v>
+        <v>1.471162295482588e-35</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>1.403285882030368e-35</v>
+        <v>1.409199679683699e-35</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>1.38974654935558e-35</v>
+        <v>1.395778220371582e-35</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>1.433725820639927e-35</v>
+        <v>1.439442890054261e-35</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>1.543662647023762e-35</v>
+        <v>1.548563097150097e-35</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>1.718085586185494e-35</v>
+        <v>1.721673401212887e-35</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.940553962543083e-35</v>
+        <v>1.942453235478764e-35</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>2.193384161298087e-35</v>
+        <v>2.193348568600632e-35</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>2.458892567652119e-35</v>
+        <v>2.456805369231448e-35</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>2.719395566806425e-35</v>
+        <v>2.71526960602381e-35</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>2.957209543962615e-35</v>
+        <v>2.951187247630671e-35</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>3.154650884322259e-35</v>
+        <v>3.147004262704948e-35</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>3.294035973086665e-35</v>
+        <v>3.285166619899298e-35</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>3.361197895247579e-35</v>
+        <v>3.351611576363619e-35</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>3.36037473183084e-35</v>
+        <v>3.350548392766656e-35</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>3.301805436418511e-35</v>
+        <v>3.292143840675847e-35</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>3.195732265072923e-35</v>
+        <v>3.186567970275525e-35</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>3.052397473856335e-35</v>
+        <v>3.043990831749964e-35</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>2.882043318831024e-35</v>
+        <v>2.874582475283444e-35</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>2.694912056059173e-35</v>
+        <v>2.68851295106016e-35</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>2.501245941603234e-35</v>
+        <v>2.495952309264566e-35</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>2.311287077876812e-35</v>
+        <v>2.307070447514139e-35</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>2.133218157282256e-35</v>
+        <v>2.129992353965228e-35</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.967999677269414e-35</v>
+        <v>1.965671674152912e-35</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.815009824442742e-35</v>
+        <v>1.8134908840052e-35</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.673626785406778e-35</v>
+        <v>1.672832459450185e-35</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>1.543228746766004e-35</v>
+        <v>1.543078876415905e-35</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>1.423193895125077e-35</v>
+        <v>1.423612610830568e-35</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>1.312900417088475e-35</v>
+        <v>1.313816138622209e-35</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>1.211726499260735e-35</v>
+        <v>1.213071935718919e-35</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>1.119050328246358e-35</v>
+        <v>1.120762478048752e-35</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>1.034250090649964e-35</v>
+        <v>1.036270241539885e-35</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>9.567039730760489e-36</v>
+        <v>9.589777021203652e-36</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>8.857901621291215e-36</v>
+        <v>8.882673357182571e-36</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>8.208868444137833e-36</v>
+        <v>8.235216182617168e-36</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>7.613722065345403e-36</v>
+        <v>7.641230256788043e-36</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>7.066244350959075e-36</v>
+        <v>7.094540338975887e-36</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>6.560217167024727e-36</v>
+        <v>6.588971188462126e-36</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>6.089422379587485e-36</v>
+        <v>6.11834756452743e-36</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>5.648145807734774e-36</v>
+        <v>5.676995550343021e-36</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>5.234039795306459e-36</v>
+        <v>5.262590190481071e-36</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>4.846136049823292e-36</v>
+        <v>4.874178696975704e-36</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>4.483470446042927e-36</v>
+        <v>4.510812427357229e-36</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>4.145078858723208e-36</v>
+        <v>4.171542739156146e-36</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>3.829997162621844e-36</v>
+        <v>3.85542098990282e-36</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>3.537261232496961e-36</v>
+        <v>3.561498537128035e-36</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>3.265906943106256e-36</v>
+        <v>3.288826738362142e-36</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>3.014970169207466e-36</v>
+        <v>3.036456951135534e-36</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>2.78348678555866e-36</v>
+        <v>2.803440532978938e-36</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>2.570492666917566e-36</v>
+        <v>2.588828841422735e-36</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>2.375023688041943e-36</v>
+        <v>2.391673233997342e-36</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>2.196115723689811e-36</v>
+        <v>2.211025068233436e-36</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>2.032804648618923e-36</v>
+        <v>2.045935701661424e-36</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>1.884126337587059e-36</v>
+        <v>1.895456491811743e-36</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>1.749116665352254e-36</v>
+        <v>1.758638796215087e-36</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>1.626811506672111e-36</v>
+        <v>1.634533972401708e-36</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>1.516246736304598e-36</v>
+        <v>1.522193377902236e-36</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>1.416458229007644e-36</v>
+        <v>1.420668370247256e-36</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>1.326481859538914e-36</v>
+        <v>1.329010306967085e-36</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>1.245353502656414e-36</v>
+        <v>1.24627054559239e-36</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>1.172109033117842e-36</v>
+        <v>1.17150044365352e-36</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>1.105784325681117e-36</v>
+        <v>1.103751358681054e-36</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>1.045415255104135e-36</v>
+        <v>1.042074648205544e-36</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>9.900376961446308e-37</v>
+        <v>9.855216697573774e-37</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>9.386875235605045e-37</v>
+        <v>9.331437808671133e-37</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>8.904425282786803e-37</v>
+        <v>8.840329479941081e-37</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>8.44869215667607e-37</v>
+        <v>8.377546104942565e-37</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>8.01850075365132e-37</v>
+        <v>7.941803373864731e-37</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>7.612728942579037e-37</v>
+        <v>7.531868297330914e-37</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>7.230254592324612e-37</v>
+        <v>7.14650788596335e-37</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>6.86995557175456e-37</v>
+        <v>6.784489150385399e-37</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>6.530709749735302e-37</v>
+        <v>6.444579101220335e-37</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>6.211394995132359e-37</v>
+        <v>6.125544749090522e-37</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>5.910889176812177e-37</v>
+        <v>5.826153104619255e-37</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>5.628070163641128e-37</v>
+        <v>5.545171178429754e-37</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>5.361815824484838e-37</v>
+        <v>5.281365981144491e-37</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>5.111004028209914e-37</v>
+        <v>5.033504523386921e-37</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>4.874512643682036e-37</v>
+        <v>4.800353815779575e-37</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>4.651219539767565e-37</v>
+        <v>4.58068086894566e-37</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>4.440002585332819e-37</v>
+        <v>4.373252693508337e-37</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>4.239739649243543e-37</v>
+        <v>4.176836300090205e-37</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>4.049308600366067e-37</v>
+        <v>3.990198699314439e-37</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>3.867602178202397e-37</v>
+        <v>3.812123613405179e-37</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>3.693942780506873e-37</v>
+        <v>3.641877613969773e-37</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>3.528137650107761e-37</v>
+        <v>3.479272140876696e-37</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>3.37001998838083e-37</v>
+        <v>3.324147806176229e-37</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>3.219422996701425e-37</v>
+        <v>3.176345221918237e-37</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>3.076179876445445e-37</v>
+        <v>3.035705000153128e-37</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>2.940123828988264e-37</v>
+        <v>2.902067752930796e-37</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>2.811088055705643e-37</v>
+        <v>2.775274092301513e-37</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>2.688905757973318e-37</v>
+        <v>2.655164630315529e-37</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>2.573410137166699e-37</v>
+        <v>2.541579979022771e-37</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>2.464434394661528e-37</v>
+        <v>2.434360750473495e-37</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>2.361811731833525e-37</v>
+        <v>2.333347556717931e-37</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>2.265375350058133e-37</v>
+        <v>2.238381009806044e-37</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>2.174958450711079e-37</v>
+        <v>2.149301721788071e-37</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>2.090394235168065e-37</v>
+        <v>2.065950304714227e-37</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>2.011515904804568e-37</v>
+        <v>1.988167370634507e-37</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>1.938156660996296e-37</v>
+        <v>1.915793531599133e-37</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>1.870149705118939e-37</v>
+        <v>1.848669399658306e-37</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>1.807328238548003e-37</v>
+        <v>1.786635586862051e-37</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.749525462659231e-37</v>
+        <v>1.729532705260622e-37</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.696574578828147e-37</v>
+        <v>1.677201366904061e-37</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.648308788430438e-37</v>
+        <v>1.629482183842565e-37</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.604561292841768e-37</v>
+        <v>1.586215768126317e-37</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.56516529343769e-37</v>
+        <v>1.547242731805381e-37</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.529953991593873e-37</v>
+        <v>1.512403686929943e-37</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.498760588685974e-37</v>
+        <v>1.481539245550172e-37</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.471418286089566e-37</v>
+        <v>1.454490019716159e-37</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.447760285180308e-37</v>
+        <v>1.431096621478074e-37</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.427619787333847e-37</v>
+        <v>1.41119966288608e-37</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.410829993925776e-37</v>
+        <v>1.394639755990284e-37</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.397224106331744e-37</v>
+        <v>1.381257512840849e-37</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.386635325927387e-37</v>
+        <v>1.370893545487928e-37</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.378896854088319e-37</v>
+        <v>1.363388465981647e-37</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.373841892190182e-37</v>
+        <v>1.358582886372163e-37</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.371303641608596e-37</v>
+        <v>1.35631741870961e-37</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.371117398739422e-37</v>
+        <v>1.356434508258547e-37</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.373150467381965e-37</v>
+        <v>1.358804607857111e-37</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.377295132516567e-37</v>
+        <v>1.363320029731921e-37</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.38344434178451e-37</v>
+        <v>1.369873665960599e-37</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.391491042827068e-37</v>
+        <v>1.378358408620761e-37</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.401328183285541e-37</v>
+        <v>1.388667149790045e-37</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.412848710801206e-37</v>
+        <v>1.40069278154607e-37</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.425945573015332e-37</v>
+        <v>1.414328195966445e-37</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.440511717569229e-37</v>
+        <v>1.42946628512882e-37</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.456440092104153e-37</v>
+        <v>1.445999941110792e-37</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.473623644261417e-37</v>
+        <v>1.463822055990012e-37</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.49195532168229e-37</v>
+        <v>1.482825521844093e-37</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.511328072008038e-37</v>
+        <v>1.502903230750639e-37</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.53163484287998e-37</v>
+        <v>1.52394807478731e-37</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.552768581939382e-37</v>
+        <v>1.545852946031712e-37</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.574622236827508e-37</v>
+        <v>1.568510736561449e-37</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.597088755185681e-37</v>
+        <v>1.591814338454185e-37</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.620061084655165e-37</v>
+        <v>1.615656643787525e-37</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.643432172877221e-37</v>
+        <v>1.639930544639069e-37</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.667094967493178e-37</v>
+        <v>1.664528933086487e-37</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.690942416144296e-37</v>
+        <v>1.689344701207379e-37</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>1.714867466471839e-37</v>
+        <v>1.714270741079348e-37</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.738875439544425e-37</v>
+        <v>1.739311408534883e-37</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.764180130645413e-37</v>
+        <v>1.765669750919419e-37</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.792730908078109e-37</v>
+        <v>1.795278434072036e-37</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.826487562898664e-37</v>
+        <v>1.830080462211594e-37</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>1.867409886163118e-37</v>
+        <v>1.872018839556833e-37</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>1.917457668927642e-37</v>
+        <v>1.923036570326633e-37</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>1.978590702248308e-37</v>
+        <v>1.985076658739767e-37</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>2.052768777181143e-37</v>
+        <v>2.060082109014966e-37</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>2.141951684782381e-37</v>
+        <v>2.149995925371171e-37</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>2.248099216108065e-37</v>
+        <v>2.256761112027126e-37</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>2.373171162214173e-37</v>
+        <v>2.382320673201516e-37</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>2.519127314157034e-37</v>
+        <v>2.528617613113372e-37</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>2.687927462992644e-37</v>
+        <v>2.697594935981397e-37</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>2.881004101380067e-37</v>
+        <v>2.890671618372489e-37</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>3.096165184097378e-37</v>
+        <v>3.105664581384233e-37</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>3.329694969104521e-37</v>
+        <v>3.338876500536556e-37</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>3.577872441518061e-37</v>
+        <v>3.586604811212583e-37</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>3.836976586453929e-37</v>
+        <v>3.845146948794813e-37</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>4.103286389028022e-37</v>
+        <v>4.110800348665706e-37</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>4.373080834356958e-37</v>
+        <v>4.379862446208445e-37</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>4.642638907556637e-37</v>
+        <v>4.648630676805495e-37</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>4.90823959374296e-37</v>
+        <v>4.913402475839321e-37</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>5.166237016477139e-37</v>
+        <v>5.170549107698024e-37</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>5.413328435973222e-37</v>
+        <v>5.416778993570946e-37</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>5.646309008707075e-37</v>
+        <v>5.648896744868485e-37</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>5.861973898542493e-37</v>
+        <v>5.863706980260229e-37</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>6.057118269342465e-37</v>
+        <v>6.058014318414959e-37</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>6.228537284970718e-37</v>
+        <v>6.228623378002194e-37</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>6.373026109290435e-37</v>
+        <v>6.372338777690914e-37</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>6.487379906164898e-37</v>
+        <v>6.485965136150194e-37</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>6.568393839457689e-37</v>
+        <v>6.566307072049407e-37</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>6.612863073032063e-37</v>
+        <v>6.6101692040576e-37</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>6.617582770751405e-37</v>
+        <v>6.614356150843953e-37</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>6.579348096479096e-37</v>
+        <v>6.575672531077642e-37</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>6.494954214078484e-37</v>
+        <v>6.490922963427805e-37</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>6.361196287413089e-37</v>
+        <v>6.356912066563758e-37</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>6.174869480346038e-37</v>
+        <v>6.170444459154418e-37</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>5.932768956740806e-37</v>
+        <v>5.928324759869056e-37</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>5.631689880461056e-37</v>
+        <v>5.627357587377127e-37</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>5.269967909739974e-37</v>
+        <v>5.265884545242344e-37</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>4.856266289525738e-37</v>
+        <v>4.852551295965026e-37</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>4.403493403301905e-37</v>
+        <v>4.400238969523986e-37</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>3.924570684966108e-37</v>
+        <v>3.921841716581321e-37</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>3.43241956841765e-37</v>
+        <v>3.430253687800801e-37</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>2.939961487554095e-37</v>
+        <v>2.938369033844455e-37</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>2.460117876274344e-37</v>
+        <v>2.45908190537565e-37</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>2.005810168477251e-37</v>
+        <v>2.005286453057706e-37</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.589959798060452e-37</v>
+        <v>1.589876827552725e-37</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>1.22548819892283e-37</v>
+        <v>1.225747179524057e-37</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>9.25306306863845e-38</v>
+        <v>9.257811848575354e-38</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>6.965102308567138e-38</v>
+        <v>6.970606104617891e-38</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>5.307351840275737e-38</v>
+        <v>5.312406743401629e-38</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>4.170751767362375e-38</v>
+        <v>4.174410371039413e-38</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>3.446242193422397e-38</v>
+        <v>3.447813593641294e-38</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>3.024763222054624e-38</v>
+        <v>3.023813017320813e-38</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>2.79725495685569e-38</v>
+        <v>2.793605248189305e-38</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>2.655018090115006e-38</v>
+        <v>2.648746601008859e-38</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>2.52517661878212e-38</v>
+        <v>2.516529265909578e-38</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>2.400580846598101e-38</v>
+        <v>2.389811330143147e-38</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>2.281121932193345e-38</v>
+        <v>2.26847455214951e-38</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>2.166691034198232e-38</v>
+        <v>2.152400690368592e-38</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>2.057179311242833e-38</v>
+        <v>2.041471503240007e-38</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.952477921957532e-38</v>
+        <v>1.935568749203684e-38</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.852478024972696e-38</v>
+        <v>1.834574186699534e-38</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.75707077891842e-38</v>
+        <v>1.738369574167198e-38</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.666147342425075e-38</v>
+        <v>1.646836670046592e-38</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.579598874123016e-38</v>
+        <v>1.559857232777615e-38</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.497316532642365e-38</v>
+        <v>1.477313020799932e-38</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.419191476613478e-38</v>
+        <v>1.399085792553446e-38</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.3451148646667e-38</v>
+        <v>1.325057306478045e-38</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.274977855432174e-38</v>
+        <v>1.255109321013418e-38</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.208671607540306e-38</v>
+        <v>1.189123594599514e-38</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.146087279621253e-38</v>
+        <v>1.126981885676036e-38</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.087116030305355e-38</v>
+        <v>1.068565952682869e-38</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.031649018222939e-38</v>
+        <v>1.013757554059882e-38</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>9.795774020041815e-39</v>
+        <v>9.624384482467994e-39</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>9.307923402794131e-39</v>
+        <v>9.144903936834947e-39</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>8.851849916789508e-39</v>
+        <v>8.697951488098291e-39</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>8.426465148329911e-39</v>
+        <v>8.282344720655455e-39</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>8.03068068371854e-39</v>
+        <v>7.896901218905071e-39</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>7.663408109258491e-39</v>
+        <v>7.540438567245677e-39</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>7.323559011251884e-39</v>
+        <v>7.211774350074857e-39</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>7.010044976002108e-39</v>
+        <v>6.909726151791427e-39</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>6.721777589811389e-39</v>
+        <v>6.633111556793079e-39</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>6.457668438982788e-39</v>
+        <v>6.380748149478311e-39</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>6.216629109819298e-39</v>
+        <v>6.151453514245552e-39</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>5.997571188623262e-39</v>
+        <v>5.944045235492611e-39</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>5.799406261697688e-39</v>
+        <v>5.757340897617932e-39</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>5.621045915345506e-39</v>
+        <v>5.590158085019881e-39</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>5.461401735869175e-39</v>
+        <v>5.441314382096383e-39</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>5.319385309571643e-39</v>
+        <v>5.309627373245827e-39</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>5.193908222755795e-39</v>
+        <v>5.193914642866529e-39</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>5.083882061724184e-39</v>
+        <v>5.09299377535651e-39</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>4.988218412779791e-39</v>
+        <v>5.00568235511418e-39</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>4.905828862225223e-39</v>
+        <v>4.930797966537606e-39</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>4.835624996363352e-39</v>
+        <v>4.8671581940251e-39</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>4.776518582589523e-39</v>
+        <v>4.813580836818465e-39</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>4.727610828515615e-39</v>
+        <v>4.769108441190414e-39</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>4.688551040216278e-39</v>
+        <v>4.733433803420639e-39</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>4.659087073005637e-39</v>
+        <v>4.706366636087664e-39</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>4.638966782197736e-39</v>
+        <v>4.687716651769941e-39</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>4.627938023106712e-39</v>
+        <v>4.677293563046006e-39</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>4.625748651046657e-39</v>
+        <v>4.674907082494357e-39</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>4.632146521331671e-39</v>
+        <v>4.680366922693493e-39</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>4.646879489275858e-39</v>
+        <v>4.693482796221925e-39</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>4.669695410193295e-39</v>
+        <v>4.714064415658132e-39</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>4.700342139398125e-39</v>
+        <v>4.741921493580657e-39</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>4.738567532204429e-39</v>
+        <v>4.776863742567985e-39</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>4.784119443926264e-39</v>
+        <v>4.818700875198579e-39</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>4.836745729877812e-39</v>
+        <v>4.867242604051021e-39</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>4.89619424537308e-39</v>
+        <v>4.922298641703723e-39</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>4.962212845726275e-39</v>
+        <v>4.98367870073529e-39</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>5.034549386251446e-39</v>
+        <v>5.051192493724177e-39</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>5.112951722262621e-39</v>
+        <v>5.12464973324882e-39</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>5.197167709074039e-39</v>
+        <v>5.203860131887852e-39</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>5.286945201999738e-39</v>
+        <v>5.288633402219717e-39</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>5.382032056353721e-39</v>
+        <v>5.378779256822827e-39</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>5.48217612745027e-39</v>
+        <v>5.474107408275855e-39</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>5.587125270603392e-39</v>
+        <v>5.574427569157222e-39</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>5.696627341127096e-39</v>
+        <v>5.679549452045337e-39</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>5.810430194335674e-39</v>
+        <v>5.789282769518888e-39</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>5.928281685543023e-39</v>
+        <v>5.903437234156186e-39</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>6.049929670063457e-39</v>
+        <v>6.021822558535939e-39</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>6.175122003210967e-39</v>
+        <v>6.144248455236543e-39</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>6.303606540299544e-39</v>
+        <v>6.270524636836395e-39</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>6.435131136643511e-39</v>
+        <v>6.400460815914218e-39</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>6.569443647556861e-39</v>
+        <v>6.533866705048407e-39</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>6.706291928353567e-39</v>
+        <v>6.670552016817341e-39</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>6.845423834347976e-39</v>
+        <v>6.810326463799769e-39</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>6.986587220854067e-39</v>
+        <v>6.952999758574071e-39</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>7.129529943185808e-39</v>
+        <v>7.098381613718619e-39</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>7.273999856657559e-39</v>
+        <v>7.246281741812179e-39</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>7.419744816583162e-39</v>
+        <v>7.396509855432986e-39</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>7.566512678276976e-39</v>
+        <v>7.548875667159817e-39</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>7.714051286682469e-39</v>
+        <v>7.703188877265087e-39</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>7.861810845196403e-39</v>
+        <v>7.858905995673933e-39</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>8.008165535760091e-39</v>
+        <v>8.01420669312113e-39</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>8.151246463737537e-39</v>
+        <v>8.1669821984162e-39</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>8.289184734492211e-39</v>
+        <v>8.315123740368095e-39</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>8.420111453388094e-39</v>
+        <v>8.456522547786318e-39</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>8.542157725788789e-39</v>
+        <v>8.589069849479961e-39</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>8.653454657057932e-39</v>
+        <v>8.710656874258156e-39</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>8.752133352559454e-39</v>
+        <v>8.81917485093035e-39</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>8.836324917656984e-39</v>
+        <v>8.912515008305662e-39</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>8.904160457714195e-39</v>
+        <v>8.988568575193266e-39</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>8.953771078094941e-39</v>
+        <v>9.045226780402524e-39</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>8.983287884162883e-39</v>
+        <v>9.080380852742591e-39</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>8.99084198128176e-39</v>
+        <v>9.091922021022705e-39</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>8.974564474815307e-39</v>
+        <v>9.077741514052116e-39</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>8.932586470127299e-39</v>
+        <v>9.035730560640084e-39</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>8.863039072581383e-39</v>
+        <v>8.963780389595768e-39</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>8.764053387541314e-39</v>
+        <v>8.859782229728419e-39</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>8.633959841860014e-39</v>
+        <v>8.721850727688435e-39</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>8.474588273964923e-39</v>
+        <v>8.552022992187651e-39</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>8.290753975742921e-39</v>
+        <v>8.355682502515147e-39</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>8.087367955242103e-39</v>
+        <v>8.138320025429063e-39</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>7.869341220510008e-39</v>
+        <v>7.905426327686941e-39</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>7.641584779594703e-39</v>
+        <v>7.662492176046896e-39</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>7.409009640544311e-39</v>
+        <v>7.415008337267091e-39</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>7.176526811406311e-39</v>
+        <v>7.168465578105013e-39</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>6.949047300229018e-39</v>
+        <v>6.928354665319027e-39</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>6.731482115059916e-39</v>
+        <v>6.700166365666627e-39</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>6.528742263947124e-39</v>
+        <v>6.489391445905977e-39</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>6.345738754938695e-39</v>
+        <v>6.301520672795162e-39</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>6.187382596082202e-39</v>
+        <v>6.142044813091778e-39</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>6.058584795425723e-39</v>
+        <v>6.016454633553938e-39</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>5.964235131475188e-39</v>
+        <v>5.930217193769956e-39</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>5.905579094107529e-39</v>
+        <v>5.884729952169334e-39</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>5.876116296475505e-39</v>
+        <v>5.872740495532409e-39</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>5.868355469654029e-39</v>
+        <v>5.885889886084856e-39</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>5.874805344718001e-39</v>
+        <v>5.915819186052386e-39</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>5.887974652742336e-39</v>
+        <v>5.954169457660653e-39</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>5.900372124801976e-39</v>
+        <v>5.992581763135415e-39</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>5.904506491971821e-39</v>
+        <v>6.022697164702332e-39</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>5.892886485326782e-39</v>
+        <v>6.036156724587088e-39</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>5.858243186816353e-39</v>
+        <v>6.024816901359207e-39</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>5.800308028592336e-39</v>
+        <v>5.987315551872017e-39</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>5.727055393253491e-39</v>
+        <v>5.930275666350464e-39</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>5.64693261616889e-39</v>
+        <v>5.860778395113294e-39</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>5.568387032707803e-39</v>
+        <v>5.7859048884794e-39</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>5.499865978239498e-39</v>
+        <v>5.712736296767699e-39</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>5.449816788133059e-39</v>
+        <v>5.64835377029691e-39</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>5.425853919760948e-39</v>
+        <v>5.599272670842869e-39</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>5.421516839678094e-39</v>
+        <v>5.562446973545028e-39</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>5.41862107502731e-39</v>
+        <v>5.526866377112712e-39</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>5.398624414426294e-39</v>
+        <v>5.481277562238653e-39</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>5.342984646492805e-39</v>
+        <v>5.414427209615621e-39</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>5.238279769092625e-39</v>
+        <v>5.317948088646193e-39</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>5.093997724065989e-39</v>
+        <v>5.196386528989414e-39</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>4.926031555507821e-39</v>
+        <v>5.057899199727363e-39</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>4.75027460607978e-39</v>
+        <v>4.9106429382342e-39</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>4.580126980270118e-39</v>
+        <v>4.761574600667364e-39</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>4.417873790749792e-39</v>
+        <v>4.612301461444547e-39</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>4.262703937364167e-39</v>
+        <v>4.462940605529056e-39</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>4.11380618884684e-39</v>
+        <v>4.313609054780877e-39</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>3.970369313931007e-39</v>
+        <v>4.164423831059587e-39</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>3.831582081350272e-39</v>
+        <v>4.01550195622517e-39</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>3.696633259838217e-39</v>
+        <v>3.866960452137604e-39</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>3.564711618128067e-39</v>
+        <v>3.718916340656474e-39</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>3.435005924953524e-39</v>
+        <v>3.571486643641892e-39</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>3.306704949047823e-39</v>
+        <v>3.424788382953441e-39</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>3.178997459144545e-39</v>
+        <v>3.278938580451102e-39</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>3.051072223977155e-39</v>
+        <v>3.134054257994723e-39</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>2.922118012279234e-39</v>
+        <v>2.990252437444282e-39</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>2.791368179427202e-39</v>
+        <v>2.847667673488714e-39</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>2.659132763312496e-39</v>
+        <v>2.7068579052537e-39</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>2.526827715119211e-39</v>
+        <v>2.568815950735211e-39</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>2.395919420145745e-39</v>
+        <v>2.43455446016297e-39</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>2.267874263690493e-39</v>
+        <v>2.305086083766691e-39</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>2.144158631051499e-39</v>
+        <v>2.181423471775734e-39</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>2.026238907527161e-39</v>
+        <v>2.064579274419817e-39</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.915581478415853e-39</v>
+        <v>1.955566141928633e-39</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.813652729015653e-39</v>
+        <v>1.855396724531579e-39</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.721919044624945e-39</v>
+        <v>1.765083672458356e-39</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.641846810542072e-39</v>
+        <v>1.685639635938628e-39</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.57490241206517e-39</v>
+        <v>1.618077265201848e-39</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.522552234492633e-39</v>
+        <v>1.563409210477732e-39</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.486059110453955e-39</v>
+        <v>1.522601358282773e-39</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.465532751663224e-39</v>
+        <v>1.496354679837236e-39</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.460677284541088e-39</v>
+        <v>1.485276968146668e-39</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.471196387256857e-39</v>
+        <v>1.48997591323638e-39</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.496793737979859e-39</v>
+        <v>1.511059205131723e-39</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.537173014879368e-39</v>
+        <v>1.549134533857986e-39</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.592037896124775e-39</v>
+        <v>1.604809589440573e-39</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.661092059885367e-39</v>
+        <v>1.678692061904788e-39</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.744039262267371e-39</v>
+        <v>1.771389716327397e-39</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.854652452836296e-39</v>
+        <v>1.897058626486199e-39</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>2.060022100708258e-39</v>
+        <v>2.121198407360055e-39</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>2.438956034326446e-39</v>
+        <v>2.520559615836733e-39</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>3.011401509172384e-39</v>
+        <v>3.113104160777402e-39</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>3.703560541356212e-39</v>
+        <v>3.823163264077974e-39</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>4.433270206404147e-39</v>
+        <v>4.566713428626306e-39</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>5.11836757984051e-39</v>
+        <v>5.259731157308307e-39</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>5.676689737189793e-39</v>
+        <v>5.818192953010075e-39</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>6.027078173283732e-39</v>
+        <v>6.15912566692702e-39</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>6.152415817419915e-39</v>
+        <v>6.266526002323787e-39</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>6.137084306704652e-39</v>
+        <v>6.230530593649484e-39</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>6.074462835262425e-39</v>
+        <v>6.150685062948737e-39</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>6.057930597217748e-39</v>
+        <v>6.126535032266253e-39</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>6.171403565194902e-39</v>
+        <v>6.247370816272432e-39</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>6.40692236751646e-39</v>
+        <v>6.502917280820015e-39</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>6.704863192512136e-39</v>
+        <v>6.826910460428378e-39</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>7.005026476338994e-39</v>
+        <v>7.152462446121356e-39</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>7.247212655154946e-39</v>
+        <v>7.412685328923703e-39</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>7.37531581860255e-39</v>
+        <v>7.545352765401788e-39</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>7.379279567841796e-39</v>
+        <v>7.540676366848906e-39</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>7.278041953806785e-39</v>
+        <v>7.421884590871969e-39</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>7.090993140927977e-39</v>
+        <v>7.212720730225368e-39</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>6.837523293635294e-39</v>
+        <v>6.936928077662883e-39</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>6.536927976012659e-39</v>
+        <v>6.618107327187563e-39</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>6.204164101083345e-39</v>
+        <v>6.273319173251335e-39</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>5.848137142952921e-39</v>
+        <v>5.910502487128931e-39</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>5.477303484851684e-39</v>
+        <v>5.536919189106526e-39</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>5.100119510009979e-39</v>
+        <v>5.15983119947033e-39</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>4.725041601657129e-39</v>
+        <v>4.786500438505537e-39</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>4.360526143023799e-39</v>
+        <v>4.424188826498678e-39</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>4.014918441221633e-39</v>
+        <v>4.080063861246196e-39</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>3.692685784942603e-39</v>
+        <v>3.757996452958872e-39</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>3.393498534975725e-39</v>
+        <v>3.457779786766371e-39</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>3.116729584942766e-39</v>
+        <v>3.178954179847485e-39</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>2.861751828466302e-39</v>
+        <v>2.921059949381824e-39</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>2.627938159168842e-39</v>
+        <v>2.683637412548925e-39</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>2.414661470672263e-39</v>
+        <v>2.466226886527694e-39</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>2.221294656599089e-39</v>
+        <v>2.268368688497684e-39</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>2.047210610571767e-39</v>
+        <v>2.08960313563838e-39</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.891782226212288e-39</v>
+        <v>1.929470545128791e-39</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.754382397143236e-39</v>
+        <v>1.787511234148539e-39</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>1.634384016986662e-39</v>
+        <v>1.663265519876701e-39</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>1.531159979365002e-39</v>
+        <v>1.556273719492743e-39</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>1.444041414861781e-39</v>
+        <v>1.466029877595216e-39</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>1.371226589740846e-39</v>
+        <v>1.390772848612558e-39</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.30967600312524e-39</v>
+        <v>1.327370066653027e-39</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.256287358939513e-39</v>
+        <v>1.272619390047337e-39</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.207958361108006e-39</v>
+        <v>1.223318677125983e-39</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.161586713555207e-39</v>
+        <v>1.176265786219612e-39</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.114070120205592e-39</v>
+        <v>1.128258575658861e-39</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.062306284983514e-39</v>
+        <v>1.076094903774238e-39</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.003194966374442e-39</v>
+        <v>1.016574718510227e-39</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>9.352694213702349e-40</v>
+        <v>9.481593354274864e-40</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>8.616314239637431e-40</v>
+        <v>8.739565305332098e-40</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>7.861753054158486e-40</v>
+        <v>7.978801589181762e-40</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>7.127953969874391e-40</v>
+        <v>7.238440756731713e-40</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>6.453860299392031e-40</v>
+        <v>6.557621358887786e-40</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>5.878415355320782e-40</v>
+        <v>5.975481946558345e-40</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>5.440562450267816e-40</v>
+        <v>5.531161070649516e-40</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>5.179244896841941e-40</v>
+        <v>5.263797282069082e-40</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>5.133406007651325e-40</v>
+        <v>5.212529131724189e-40</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>5.341989095304094e-40</v>
+        <v>5.416495170521919e-40</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>5.843937472408629e-40</v>
+        <v>5.914833949369628e-40</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>6.678194451572258e-40</v>
+        <v>6.746684019173616e-40</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>7.883703345404688e-40</v>
+        <v>7.951183930842558e-40</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>9.510025433989596e-40</v>
+        <v>9.578299944047324e-40</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>1.173958551395595e-39</v>
+        <v>1.181348634531474e-39</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>1.484522776410874e-39</v>
+        <v>1.493440289637722e-39</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>1.91015293632931e-39</v>
+        <v>1.922047659170426e-39</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>2.478306749036777e-39</v>
+        <v>2.495113442577902e-39</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>3.216441932418073e-39</v>
+        <v>3.240580339307389e-39</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>4.117458573306235e-39</v>
+        <v>4.151234995810789e-39</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>4.858345849431421e-39</v>
+        <v>4.898482634981503e-39</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>4.946787564689013e-39</v>
+        <v>4.981491306221088e-39</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>4.434487078149323e-39</v>
+        <v>4.452362153900081e-39</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>4.542130533469624e-39</v>
+        <v>4.552362820761963e-39</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>5.050662436698986e-39</v>
+        <v>5.061082054271584e-39</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>5.560205470470869e-39</v>
+        <v>5.574462269562138e-39</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>5.706630576373013e-39</v>
+        <v>5.72441195248072e-39</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>5.502648212665984e-39</v>
+        <v>5.521975163610442e-39</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>5.186879191752249e-39</v>
+        <v>5.205482774409868e-39</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>4.998777799166518e-39</v>
+        <v>5.014132100803125e-39</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>5.010507527270143e-39</v>
+        <v>5.020903974381977e-39</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>5.021184461137526e-39</v>
+        <v>5.027438384049244e-39</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>4.934960114399194e-39</v>
+        <v>4.938927838167888e-39</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>4.767212296820737e-39</v>
+        <v>4.770395014096831e-39</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>4.536802280813598e-39</v>
+        <v>4.540302326958262e-39</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>4.262591338789652e-39</v>
+        <v>4.2671121918748e-39</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>3.963440743160935e-39</v>
+        <v>3.969287023969225e-39</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>3.658211766338651e-39</v>
+        <v>3.665289238363489e-39</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>3.365031171308295e-39</v>
+        <v>3.372867980596975e-39</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>3.091490852473904e-39</v>
+        <v>3.099542164910881e-39</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>2.837299803444082e-39</v>
+        <v>2.845175754958779e-39</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>2.601976923858041e-39</v>
+        <v>2.609448117380997e-39</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>2.385041113354927e-39</v>
+        <v>2.392038618817801e-39</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.186011271573306e-39</v>
+        <v>2.192626625908873e-39</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>2.004406298152495e-39</v>
+        <v>2.010891505294649e-39</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.839745092731123e-39</v>
+        <v>1.846512623614874e-39</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.691547638411296e-39</v>
+        <v>1.699169938184324e-39</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.559641130917531e-39</v>
+        <v>1.568710890278495e-39</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.444580862177627e-39</v>
+        <v>1.455379859407156e-39</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.347027610888304e-39</v>
+        <v>1.359478733595762e-39</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.267642155746217e-39</v>
+        <v>1.281309400869707e-39</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>1.206928911890008e-39</v>
+        <v>1.221034314991642e-39</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.162764118820093e-39</v>
+        <v>1.176472303517028e-39</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>1.130842317858251e-39</v>
+        <v>1.143496705673478e-39</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>1.106791953738494e-39</v>
+        <v>1.117921920299281e-39</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>1.086241471194942e-39</v>
+        <v>1.095562346232838e-39</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>1.064819314961627e-39</v>
+        <v>1.072232382312459e-39</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>1.038153929772636e-39</v>
+        <v>1.04374642737651e-39</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.002340982074293e-39</v>
+        <v>1.006376310405597e-39</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>9.582360932144979e-40</v>
+        <v>9.610540608603973e-40</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>9.094743883146037e-40</v>
+        <v>9.114329618872433e-40</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>8.597258236804338e-40</v>
+        <v>8.612003978594616e-40</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>8.126603556176752e-40</v>
+        <v>8.140437531502414e-40</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>7.719319593182543e-40</v>
+        <v>7.736338430245753e-40</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>7.387401562429879e-40</v>
+        <v>7.410967220983132e-40</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>7.092080966465702e-40</v>
+        <v>7.122952984378199e-40</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>6.790338583719672e-40</v>
+        <v>6.826574265811643e-40</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>6.467437048905361e-40</v>
+        <v>6.506217250327172e-40</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>6.129330547246553e-40</v>
+        <v>6.168295451746833e-40</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>5.782446716847466e-40</v>
+        <v>5.819726401329821e-40</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>5.433213195812638e-40</v>
+        <v>5.467427630335658e-40</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>5.088057622245654e-40</v>
+        <v>5.118316670022904e-40</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>4.753407634251347e-40</v>
+        <v>4.779311051651371e-40</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>4.435652558413566e-40</v>
+        <v>4.457287290304864e-40</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>4.138591143620553e-40</v>
+        <v>4.156348437936464e-40</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>3.86182925861278e-40</v>
+        <v>3.876108664146531e-40</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>3.60459052191349e-40</v>
+        <v>3.615772902832574e-40</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>3.366098552046691e-40</v>
+        <v>3.374546087892872e-40</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>3.145576967536316e-40</v>
+        <v>3.151633153225631e-40</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>2.942249386905715e-40</v>
+        <v>2.946239032728467e-40</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>2.755339428678839e-40</v>
+        <v>2.757568660299603e-40</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>2.584070711379581e-40</v>
+        <v>2.584826969837204e-40</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>2.427666853531379e-40</v>
+        <v>2.427218895238975e-40</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>2.28535147365826e-40</v>
+        <v>2.283949370403215e-40</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>2.156348190283715e-40</v>
+        <v>2.154223329227682e-40</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>2.039880621931622e-40</v>
+        <v>2.037245705610528e-40</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>1.935172387125818e-40</v>
+        <v>1.932221433449856e-40</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.841447104389858e-40</v>
+        <v>1.838355446643495e-40</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.757928392247587e-40</v>
+        <v>1.754852679089558e-40</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.683839869222813e-40</v>
+        <v>1.680918064686124e-40</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.618405153839149e-40</v>
+        <v>1.615756537331075e-40</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.560847864620411e-40</v>
+        <v>1.558573030922497e-40</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.510391620090387e-40</v>
+        <v>1.508572479358448e-40</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.46626003877273e-40</v>
+        <v>1.464959816536853e-40</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.427676739191268e-40</v>
+        <v>1.426939976355808e-40</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.393865339869678e-40</v>
+        <v>1.39371789271326e-40</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.36404945933174e-40</v>
+        <v>1.364498499507261e-40</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.337452716101202e-40</v>
+        <v>1.338486730635826e-40</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.313298728701828e-40</v>
+        <v>1.314887519996991e-40</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.29081111565732e-40</v>
+        <v>1.29290580148873e-40</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.269304443867584e-40</v>
+        <v>1.271840064566146e-40</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.248599779511019e-40</v>
+        <v>1.251509817576243e-40</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.228693473193512e-40</v>
+        <v>1.231914878102486e-40</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.20958204490137e-40</v>
+        <v>1.213055237964323e-40</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.191262014620852e-40</v>
+        <v>1.194930888981153e-40</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.173729902338265e-40</v>
+        <v>1.177541822972423e-40</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.156982228039916e-40</v>
+        <v>1.160888031757582e-40</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.141015511712066e-40</v>
+        <v>1.14496950715603e-40</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.125826273341023e-40</v>
+        <v>1.129786240987214e-40</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.11141103291309e-40</v>
+        <v>1.115338225070579e-40</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.097766310414532e-40</v>
+        <v>1.101625451225531e-40</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.084888625831666e-40</v>
+        <v>1.088647911271526e-40</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>1.072774499150761e-40</v>
+        <v>1.076405597027972e-40</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.061420450358119e-40</v>
+        <v>1.064898500314314e-40</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.05082299944004e-40</v>
+        <v>1.054126612949991e-40</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.040978666382799e-40</v>
+        <v>1.044089926754418e-40</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.031883971172694e-40</v>
+        <v>1.034788433547035e-40</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.023535433796027e-40</v>
+        <v>1.026222125147281e-40</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.015929574239071e-40</v>
+        <v>1.018390993374573e-40</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>1.009062912488128e-40</v>
+        <v>1.011295030048351e-40</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>1.002931968529494e-40</v>
+        <v>1.004934226988052e-40</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>9.975332623494488e-41</v>
+        <v>9.993085760130961e-41</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>9.928633139342936e-41</v>
+        <v>9.94418068942925e-41</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>9.889186432703116e-41</v>
+        <v>9.902626975969617e-41</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>9.856957703437989e-41</v>
+        <v>9.868424537946427e-41</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>9.831912151410491e-41</v>
+        <v>9.841573293554023e-41</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>9.814014976483484e-41</v>
+        <v>9.822073160986668e-41</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>9.803231378519918e-41</v>
+        <v>9.809924058438707e-41</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>9.799526557382697e-41</v>
+        <v>9.805125904104463e-41</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>9.802865712934737e-41</v>
+        <v>9.807678616178242e-41</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>9.813214045038954e-41</v>
+        <v>9.817582112854368e-41</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>9.830536753558246e-41</v>
+        <v>9.834836312327143e-41</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>9.854799038355559e-41</v>
+        <v>9.859441132790916e-41</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>9.885966099293759e-41</v>
+        <v>9.891396492439953e-41</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>9.924003136235826e-41</v>
+        <v>9.930702309468636e-41</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>9.969306766693998e-41</v>
+        <v>9.977769374624849e-41</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.002431208056448e-40</v>
+        <v>1.003494987432047e-40</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.009205566229172e-40</v>
+        <v>1.010516884496869e-40</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.017557418350233e-40</v>
+        <v>1.019135140601311e-40</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.027790431582266e-40</v>
+        <v>1.0296422676897e-40</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.040208273087938e-40</v>
+        <v>1.042330777706402e-40</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.05511461002989e-40</v>
+        <v>1.05749318259575e-40</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.072813109570755e-40</v>
+        <v>1.075421994302075e-40</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.093607438873214e-40</v>
+        <v>1.096409724769752e-40</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.117801265099902e-40</v>
+        <v>1.120748885943112e-40</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.145698255413441e-40</v>
+        <v>1.148731989766474e-40</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.177577436809148e-40</v>
+        <v>1.18062737975291e-40</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.213277703162936e-40</v>
+        <v>1.216271692645667e-40</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.252258417829931e-40</v>
+        <v>1.25512930077989e-40</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.293966507963341e-40</v>
+        <v>1.296652378379926e-40</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.337848900716232e-40</v>
+        <v>1.34029309966998e-40</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.383352523241823e-40</v>
+        <v>1.385503638874406e-40</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>1.429924302693215e-40</v>
+        <v>1.431736170217444e-40</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.477011166223506e-40</v>
+        <v>1.478442867923329e-40</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.524060040985921e-40</v>
+        <v>1.525075906216423e-40</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.570517854133555e-40</v>
+        <v>1.57108745932096e-40</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.61583153281951e-40</v>
+        <v>1.615929701461178e-40</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.659448004197007e-40</v>
+        <v>1.659054806861437e-40</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>1.700814195419143e-40</v>
+        <v>1.69991494974597e-40</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>1.739377033639027e-40</v>
+        <v>1.737962304339024e-40</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>1.774583446009866e-40</v>
+        <v>1.772649044864944e-40</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>1.806312276853647e-40</v>
+        <v>1.803860440738041e-40</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>1.836435075532521e-40</v>
+        <v>1.83347990136404e-40</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>1.867397686404305e-40</v>
+        <v>1.8639666974902e-40</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>1.901646007432647e-40</v>
+        <v>1.897780153615815e-40</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>1.941625936581286e-40</v>
+        <v>1.937379594240271e-40</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>1.989783371813874e-40</v>
+        <v>1.985224343862868e-40</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>2.048564211094033e-40</v>
+        <v>2.043773726982875e-40</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>2.120414352385548e-40</v>
+        <v>2.115487068099724e-40</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>2.207776940662488e-40</v>
+        <v>2.202820891260768e-40</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>2.312242313873623e-40</v>
+        <v>2.307364210840636e-40</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>2.433344975247208e-40</v>
+        <v>2.428614763289784e-40</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>2.570315870513224e-40</v>
+        <v>2.565761494138605e-40</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>2.722385945401592e-40</v>
+        <v>2.717993348917433e-40</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>2.888786145642657e-40</v>
+        <v>2.884499273157024e-40</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>3.068747416966353e-40</v>
+        <v>3.064468212387726e-40</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>3.261500705102569e-40</v>
+        <v>3.25708911213984e-40</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>3.46627695578172e-40</v>
+        <v>3.461550917944194e-40</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>3.6821461353092e-40</v>
+        <v>3.67688844688767e-40</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>3.906213852375567e-40</v>
+        <v>3.900255757802338e-40</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>4.13427279746603e-40</v>
+        <v>4.127549866640686e-40</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>4.362091636531579e-40</v>
+        <v>4.354644787259907e-40</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>4.585439035523818e-40</v>
+        <v>4.577414533517801e-40</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>4.800083660393735e-40</v>
+        <v>4.791733119271558e-40</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>5.001794177092349e-40</v>
+        <v>4.993474558378396e-40</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>5.186339251571218e-40</v>
+        <v>5.178512864696073e-40</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>5.349487549781346e-40</v>
+        <v>5.342722052081798e-40</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>5.486949267589009e-40</v>
+        <v>5.481903225279903e-40</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>5.593602209536172e-40</v>
+        <v>5.590819540940722e-40</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>5.663704464860451e-40</v>
+        <v>5.663461403404404e-40</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>5.691499352018294e-40</v>
+        <v>5.693800798625691e-40</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>5.671230189465933e-40</v>
+        <v>5.675809712559103e-40</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>5.59714029565977e-40</v>
+        <v>5.60346013115933e-40</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>5.463476825393069e-40</v>
+        <v>5.470727955743538e-40</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>5.270711406073822e-40</v>
+        <v>5.277941779614796e-40</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>5.038197818522581e-40</v>
+        <v>5.044701307395204e-40</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>4.78885686902526e-40</v>
+        <v>4.794246747166365e-40</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>4.545609362181335e-40</v>
+        <v>4.549818305301762e-40</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>4.326800356184846e-40</v>
+        <v>4.330021651879232e-40</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>4.132864208719446e-40</v>
+        <v>4.135321637044517e-40</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>3.959853580602771e-40</v>
+        <v>3.961745117365322e-40</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>3.803821132651795e-40</v>
+        <v>3.805318949408679e-40</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>3.660819525683963e-40</v>
+        <v>3.66206998974209e-40</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>3.526901420516558e-40</v>
+        <v>3.528025094932901e-40</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>3.398119477966974e-40</v>
+        <v>3.399211121548564e-40</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>3.270526358852265e-40</v>
+        <v>3.271654926156193e-40</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>3.140174723989949e-40</v>
+        <v>3.141383365323368e-40</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>3.003766251578499e-40</v>
+        <v>3.005074390987196e-40</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>2.861739731019555e-40</v>
+        <v>2.863155031567479e-40</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>2.715868827517435e-40</v>
+        <v>2.717391465219488e-40</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>2.567928872252664e-40</v>
+        <v>2.56955154140873e-40</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>2.419695196406162e-40</v>
+        <v>2.421403109601114e-40</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>2.27294313115885e-40</v>
+        <v>2.274714019262545e-40</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>2.129448007691251e-40</v>
+        <v>2.131252119858532e-40</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.990985157184288e-40</v>
+        <v>1.992785260854982e-40</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.859321221840817e-40</v>
+        <v>1.86107266717622e-40</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.735380369246649e-40</v>
+        <v>1.737037336826464e-40</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>1.618552364197008e-40</v>
+        <v>1.620079243977743e-40</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>1.508064102295293e-40</v>
+        <v>1.509436701429858e-40</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>1.403142479145223e-40</v>
+        <v>1.404348021982928e-40</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>1.303014390350498e-40</v>
+        <v>1.30405151843705e-40</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>1.206906731514547e-40</v>
+        <v>1.207785503592057e-40</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>1.114046398241074e-40</v>
+        <v>1.114788290248049e-40</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>1.023660286133769e-40</v>
+        <v>1.024298191205119e-40</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>9.350074775620709e-41</v>
+        <v>9.355851908980964e-41</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>8.481102243221729e-41</v>
+        <v>8.486702290929915e-41</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>7.637668758494385e-41</v>
+        <v>7.643379221906712e-41</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>6.828105542162509e-41</v>
+        <v>6.834071027126042e-41</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>6.060743814952892e-41</v>
+        <v>6.06696603180556e-41</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>5.343914797589503e-41</v>
+        <v>5.350252561160086e-41</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>4.685949710798407e-41</v>
+        <v>4.692118940406549e-41</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>4.095179775305458e-41</v>
+        <v>4.100753494761659e-41</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>3.579936211834943e-41</v>
+        <v>3.58434454944056e-41</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>3.147797261309436e-41</v>
+        <v>3.150415712727295e-41</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>2.803088886597023e-41</v>
+        <v>2.803619540743273e-41</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>2.54925917232674e-41</v>
+        <v>2.547833614600123e-41</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>2.389734413120175e-41</v>
+        <v>2.386910328294752e-41</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>2.32653530095983e-41</v>
+        <v>2.323077096598628e-41</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>2.357357128823874e-41</v>
+        <v>2.353890899144559e-41</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>2.466337284132779e-41</v>
+        <v>2.46334650637204e-41</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>2.632350226888546e-41</v>
+        <v>2.630186335318951e-41</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>2.834257691307747e-41</v>
+        <v>2.833140102805768e-41</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>3.05090294974031e-41</v>
+        <v>3.050919772030783e-41</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>3.260702736976151e-41</v>
+        <v>3.261827131704849e-41</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>3.441646183845737e-41</v>
+        <v>3.443752770561784e-41</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>3.571703746031702e-41</v>
+        <v>3.574569318614017e-41</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>3.628845879217213e-41</v>
+        <v>3.63214940587451e-41</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>3.591060772181883e-41</v>
+        <v>3.594383427231289e-41</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>3.454767188820748e-41</v>
+        <v>3.457625381222181e-41</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>3.269667637192827e-41</v>
+        <v>3.271608497747016e-41</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>3.095037498279549e-41</v>
+        <v>3.095656034706509e-41</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>2.987114288039693e-41</v>
+        <v>2.986064758802122e-41</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>2.94513900902789e-41</v>
+        <v>2.942348319342074e-41</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>2.91770567484459e-41</v>
+        <v>2.91356299995317e-41</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>2.851645894894433e-41</v>
+        <v>2.847009278540637e-41</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>2.70578237427026e-41</v>
+        <v>2.701843268396551e-41</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>2.489698321019144e-41</v>
+        <v>2.48740815751633e-41</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>2.226406373105564e-41</v>
+        <v>2.226324855022312e-41</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.938919253979282e-41</v>
+        <v>1.941214354556407e-41</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>1.650249687090145e-41</v>
+        <v>1.654697649760611e-41</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.383408786385789e-41</v>
+        <v>1.389394157237957e-41</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>1.155636731888874e-41</v>
+        <v>1.162268757952743e-41</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>9.65436225055947e-42</v>
+        <v>9.71926784534514e-42</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>8.075137072539689e-42</v>
+        <v>8.13253879134705e-42</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>6.765756198504294e-42</v>
+        <v>6.811356839052766e-42</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>5.673284042127198e-42</v>
+        <v>5.704578409980943e-42</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>4.744785017079489e-42</v>
+        <v>4.761059925647357e-42</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>3.927324429304645e-42</v>
+        <v>3.929658706197835e-42</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>3.209575159490659e-42</v>
+        <v>3.201134008752355e-42</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>2.67794321116664e-42</v>
+        <v>2.6638726472586e-42</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>2.314843887836892e-42</v>
+        <v>2.299521946545564e-42</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>2.081264180679046e-42</v>
+        <v>2.067839095684519e-42</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>1.938191080870174e-42</v>
+        <v>1.928581283746192e-42</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>1.846611579588078e-42</v>
+        <v>1.841505699802025e-42</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>1.772864005610728e-42</v>
+        <v>1.771897534363505e-42</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>1.708658478575679e-42</v>
+        <v>1.711251368357514e-42</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>1.653216818124201e-42</v>
+        <v>1.658821466651674e-42</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>1.605761997016637e-42</v>
+        <v>1.613863285300643e-42</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>1.565516988013486e-42</v>
+        <v>1.575632280359223e-42</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>1.531704763875218e-42</v>
+        <v>1.543383907882192e-42</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>1.503548297362218e-42</v>
+        <v>1.516373623924243e-42</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>1.480270561234962e-42</v>
+        <v>1.493856884540161e-42</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>1.46109452825391e-42</v>
+        <v>1.475089145784712e-42</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.445243171179472e-42</v>
+        <v>1.459325863712616e-42</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.431939462772122e-42</v>
+        <v>1.445822494378652e-42</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.420407258464367e-42</v>
+        <v>1.433835372323283e-42</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.41004002929676e-42</v>
+        <v>1.422789643239089e-42</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.400601423131042e-42</v>
+        <v>1.412478873958622e-42</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.391903919835665e-42</v>
+        <v>1.402745231719827e-42</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.383759999279108e-42</v>
+        <v>1.393430883760679e-42</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.375982141329849e-42</v>
+        <v>1.384377997319153e-42</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.368382825856342e-42</v>
+        <v>1.375428739633199e-42</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.360774532727064e-42</v>
+        <v>1.36642527794079e-42</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.352969741810493e-42</v>
+        <v>1.3572097794799e-42</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>1.344780932975083e-42</v>
+        <v>1.347624411488478e-42</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>1.336020586089319e-42</v>
+        <v>1.337511341204509e-42</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>1.326501181021657e-42</v>
+        <v>1.326712735865939e-42</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>1.316035197640572e-42</v>
+        <v>1.315070762710743e-42</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>1.304435115814545e-42</v>
+        <v>1.302427588976899e-42</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>1.291513415412025e-42</v>
+        <v>1.288625381902349e-42</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>1.277082576301492e-42</v>
+        <v>1.273506308725071e-42</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>1.260955078351431e-42</v>
+        <v>1.256912536683045e-42</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>1.242943401430283e-42</v>
+        <v>1.238686233014208e-42</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>1.22286002540653e-42</v>
+        <v>1.21866956495654e-42</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>1.200722543398556e-42</v>
+        <v>1.19689668304029e-42</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>1.177494616739281e-42</v>
+        <v>1.174287245146533e-42</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>1.154412491709849e-42</v>
+        <v>1.15201604506692e-42</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>1.132712439901657e-42</v>
+        <v>1.131257900283159e-42</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>1.113630732906165e-42</v>
+        <v>1.11318762827702e-42</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>1.098403642314812e-42</v>
+        <v>1.098980046530253e-42</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>1.088267439719042e-42</v>
+        <v>1.089809972524613e-42</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>1.084458396710276e-42</v>
+        <v>1.086852223741832e-42</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>1.088212784879957e-42</v>
+        <v>1.091281617663663e-42</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>1.10076687581953e-42</v>
+        <v>1.104272971771863e-42</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>1.123356941120433e-42</v>
+        <v>1.127001103548181e-42</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>1.15721925237407e-42</v>
+        <v>1.16064083047433e-42</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>1.203590081171939e-42</v>
+        <v>1.206366970032121e-42</v>
       </c>
     </row>
   </sheetData>
